--- a/ManualTests/ENSEK Test Site Manual Testing.xlsx
+++ b/ManualTests/ENSEK Test Site Manual Testing.xlsx
@@ -16,7 +16,7 @@
     <t xml:space="preserve">Below are a couple of basic tests that I felt captured a few details of the test site that I noticed from my first round of exploratory testing.
 The approach allows you to document each step as it passes or fails making for replication and communication of those steps to replicate far easier when raising bugs/issues. I currently work with DevOps Test suites and although not perfect, they do offer good basic test case management similar to this.
 As with the automation task I felt that I have run out of free time to give you, however I hope that we can use the following as a conversation starter when it comes to review the task so we can discuss both ENSEK and my own approaches to thing like; 
-Test tooling, granularity of scenarios, input validation, exploratory testing, look and feel/UI/UXtesting, error handling, test data and prerequisites. 
+Test tooling, granularity of scenarios, input validation, exploratory testing, look and feel/UI/UXtesting, error handling, evidencing, test data and prerequisites. 
 </t>
   </si>
   <si>
